--- a/Registros/2024/Maio/Relatório Mensal Maio.xlsx
+++ b/Registros/2024/Maio/Relatório Mensal Maio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,42 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>fluxo</t>
+          <t>Fluxo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>tipo_transacao</t>
+          <t>Tipo da Transação</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>titulo</t>
+          <t>Titulo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>nome_beneficiario</t>
+          <t>Nome do Beneficiario</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>valor</t>
+          <t>Valor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Valor Total de Entrada</t>
+          <t>Extrato Bancario</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Valor Total de Saída</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total Prejuizo</t>
+          <t>Saldo Total</t>
         </is>
       </c>
     </row>
@@ -500,13 +495,10 @@
         <v>54</v>
       </c>
       <c r="F2" t="n">
-        <v>190</v>
+        <v>9870</v>
       </c>
       <c r="G2" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1748</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="3">
@@ -533,15 +525,8 @@
       <c r="E3" t="n">
         <v>32</v>
       </c>
-      <c r="F3" t="n">
-        <v>190</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1748</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,15 +552,8 @@
       <c r="E4" t="n">
         <v>456</v>
       </c>
-      <c r="F4" t="n">
-        <v>190</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1748</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -601,20 +579,13 @@
       <c r="E5" t="n">
         <v>153</v>
       </c>
-      <c r="F5" t="n">
-        <v>190</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1748</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,31 +595,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>516</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Integrarte</t>
-        </is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>123123</v>
       </c>
       <c r="E6" t="n">
-        <v>153</v>
-      </c>
-      <c r="F6" t="n">
-        <v>190</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1748</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -658,26 +620,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Internet</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Integrarte</t>
-        </is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>123123</v>
       </c>
       <c r="E7" t="n">
-        <v>153</v>
-      </c>
-      <c r="F7" t="n">
-        <v>190</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1748</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -692,26 +645,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mensalidade</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">alberto </t>
-        </is>
+          <t>Doação</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>111212312</v>
       </c>
       <c r="E8" t="n">
-        <v>51</v>
-      </c>
-      <c r="F8" t="n">
-        <v>190</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1748</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -721,36 +665,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Conta Bancária/pix</t>
+          <t>Dinheiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mensalidade</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Crisom</t>
-        </is>
+          <t>Doação</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>111212312</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="n">
-        <v>190</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1748</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -760,26 +695,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Conta de Água</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Integrarte</t>
-        </is>
+          <t>Doação</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>111212312</v>
       </c>
       <c r="E10" t="n">
-        <v>54</v>
-      </c>
-      <c r="F10" t="n">
-        <v>190</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1748</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -797,28 +723,19 @@
           <t>Mensalidade</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PP</t>
-        </is>
+      <c r="D11" t="n">
+        <v>111212312</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
-      </c>
-      <c r="F11" t="n">
-        <v>190</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1748</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -828,31 +745,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Integrarte</t>
-        </is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>111212312</v>
       </c>
       <c r="E12" t="n">
-        <v>456</v>
-      </c>
-      <c r="F12" t="n">
-        <v>190</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1748</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -862,31 +770,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pagamento Professores</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Integrarte</t>
-        </is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>111212312</v>
       </c>
       <c r="E13" t="n">
-        <v>153</v>
-      </c>
-      <c r="F13" t="n">
-        <v>190</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1748</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -896,31 +795,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>516</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Integrarte</t>
-        </is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>111212312</v>
       </c>
       <c r="E14" t="n">
-        <v>153</v>
-      </c>
-      <c r="F14" t="n">
-        <v>190</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1748</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -930,26 +820,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Internet</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Integrarte</t>
-        </is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>111212312</v>
       </c>
       <c r="E15" t="n">
-        <v>153</v>
-      </c>
-      <c r="F15" t="n">
-        <v>190</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1748</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -967,23 +848,14 @@
           <t>Mensalidade</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">alberto </t>
-        </is>
+      <c r="D16" t="n">
+        <v>111212312</v>
       </c>
       <c r="E16" t="n">
-        <v>51</v>
-      </c>
-      <c r="F16" t="n">
-        <v>190</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1748</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1001,23 +873,272 @@
           <t>Mensalidade</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>111212312</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Conta Bancária/pix</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>111212312</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Conta Bancária/pix</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>181212312</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Conta Bancária/pix</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>123123</v>
+      </c>
+      <c r="E20" t="n">
+        <v>54</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>123123</v>
+      </c>
+      <c r="E21" t="n">
+        <v>45</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conta Bancária/pix</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>123123</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conta Bancária/pix</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>123123</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Conta Bancária/pix</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Integrarte</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>153</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Conta Bancária/pix</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Integrarte</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>153</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Conta Bancária/pix</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alberto </t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>51</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Conta Bancária/pix</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mensalidade</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Crisom</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E27" t="n">
         <v>12</v>
       </c>
-      <c r="F17" t="n">
-        <v>190</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1748</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
